--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">22 ohms</t>
   </si>
   <si>
-    <t xml:space="preserve">R15</t>
+    <t xml:space="preserve">R15, R22</t>
   </si>
   <si>
     <t xml:space="preserve">MCWR08X5101FTL</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">R2010</t>
   </si>
   <si>
-    <t xml:space="preserve">R19 , R29, R21</t>
+    <t xml:space="preserve">R19 , R20, R21</t>
   </si>
   <si>
     <t xml:space="preserve">VISHAY</t>
@@ -226,6 +226,9 @@
     <t xml:space="preserve">Kicker diode</t>
   </si>
   <si>
+    <t xml:space="preserve">SOD-128</t>
+  </si>
+  <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
     <t xml:space="preserve">USB diode</t>
   </si>
   <si>
+    <t xml:space="preserve">SOD-323</t>
+  </si>
+  <si>
     <t xml:space="preserve">B1</t>
   </si>
   <si>
@@ -250,10 +256,7 @@
     <t xml:space="preserve">J1</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMBERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2411 03</t>
+    <t xml:space="preserve">USB-B-S-RA</t>
   </si>
   <si>
     <t xml:space="preserve">USB Connector</t>
@@ -262,10 +265,10 @@
     <t xml:space="preserve">J2</t>
   </si>
   <si>
-    <t xml:space="preserve">NEB 21 R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack 2.1mm connector</t>
+    <t xml:space="preserve">MJ-180PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack 2.1mm « barrel » connector</t>
   </si>
   <si>
     <t xml:space="preserve">J3, J4, J5</t>
@@ -289,6 +292,9 @@
     <t xml:space="preserve">Solenoid Kicker</t>
   </si>
   <si>
+    <t xml:space="preserve">DO NOT MOUNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
@@ -334,10 +340,10 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">MCC (MICRO COMMERCIAL COMPONENTS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCU60N04A-TP</t>
+    <t xml:space="preserve">ONSEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDD86580-F085</t>
   </si>
   <si>
     <t xml:space="preserve">Kicker MOSFET</t>
@@ -355,7 +361,7 @@
     <t xml:space="preserve">5V regulator (switching)</t>
   </si>
   <si>
-    <t xml:space="preserve">U$25</t>
+    <t xml:space="preserve">U8</t>
   </si>
   <si>
     <t xml:space="preserve">ANALOG DEVICES</t>
@@ -367,7 +373,7 @@
     <t xml:space="preserve">3.3V regulator (LDO)</t>
   </si>
   <si>
-    <t xml:space="preserve">U$1</t>
+    <t xml:space="preserve">SW1</t>
   </si>
   <si>
     <t xml:space="preserve">C&amp;K COMPONENTS</t>
@@ -415,7 +421,7 @@
     <t xml:space="preserve">BMS</t>
   </si>
   <si>
-    <t xml:space="preserve">U$7, U$12, U$13</t>
+    <t xml:space="preserve">U10, U11, U12</t>
   </si>
   <si>
     <t xml:space="preserve">TOSHIBA</t>
@@ -507,8 +513,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -567,16 +573,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -662,17 +668,17 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.15"/>
@@ -709,7 +715,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -734,7 +742,9 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -756,10 +766,12 @@
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -781,10 +793,12 @@
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -806,10 +820,12 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -831,10 +847,12 @@
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -856,10 +874,12 @@
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
@@ -881,10 +901,12 @@
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -906,15 +928,17 @@
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -931,56 +955,66 @@
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1002,10 +1036,12 @@
       <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="10.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
@@ -1021,14 +1057,18 @@
       <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1050,10 +1090,12 @@
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1069,14 +1111,18 @@
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
@@ -1092,14 +1138,16 @@
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1115,16 +1163,20 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>1</v>
@@ -1133,134 +1185,150 @@
         <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3" t="s">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="F24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -1269,67 +1337,73 @@
         <v>43</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="6" t="n">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3</v>
@@ -1338,225 +1412,243 @@
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6" t="s">
+      <c r="E31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="6" t="n">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="F36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="C37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -552,7 +552,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,10 +567,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -669,13 +665,13 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.97"/>
@@ -766,7 +762,7 @@
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -793,7 +789,7 @@
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -820,7 +816,7 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -847,7 +843,7 @@
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -874,7 +870,7 @@
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -901,7 +897,7 @@
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -928,7 +924,7 @@
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -955,7 +951,7 @@
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -982,7 +978,7 @@
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1009,7 +1005,7 @@
       <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1036,7 +1032,7 @@
       <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="10.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1063,7 +1059,7 @@
       <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -1090,7 +1086,7 @@
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1117,7 +1113,7 @@
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1142,7 +1138,7 @@
       <c r="H17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1169,7 +1165,7 @@
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -1196,7 +1192,7 @@
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1221,7 +1217,7 @@
       <c r="H20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -1246,7 +1242,7 @@
       <c r="H21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1271,7 +1267,7 @@
       <c r="H22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -1296,30 +1292,30 @@
       <c r="H23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1346,7 +1342,7 @@
       <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1371,7 +1367,7 @@
       <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -1396,7 +1392,7 @@
       <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1421,7 +1417,7 @@
       <c r="H28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1446,7 +1442,7 @@
       <c r="H29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -1471,7 +1467,7 @@
       <c r="H30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -1494,9 +1490,9 @@
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -1521,7 +1517,7 @@
       <c r="H32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -1546,7 +1542,7 @@
       <c r="H33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -1571,7 +1567,7 @@
       <c r="H34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -1596,7 +1592,7 @@
       <c r="H35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -1623,7 +1619,7 @@
       <c r="H36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -1648,7 +1644,7 @@
       <c r="H37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -268,7 +268,7 @@
     <t xml:space="preserve">MJ-180PH</t>
   </si>
   <si>
-    <t xml:space="preserve">Jack 2.1mm « barrel » connector</t>
+    <t xml:space="preserve">Jack 2.5mm « barrel » connector</t>
   </si>
   <si>
     <t xml:space="preserve">J3, J4, J5</t>
@@ -340,10 +340,10 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">ONSEMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDD86580-F085</t>
+    <t xml:space="preserve">MCC (MICRO COMMERCIAL COMPONENTS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU60N04A-TP</t>
   </si>
   <si>
     <t xml:space="preserve">Kicker MOSFET</t>
@@ -665,10 +665,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.79"/>
@@ -1129,7 +1129,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>860160278042</v>
+        <v>860020478022</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>62</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>

--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -229,13 +229,13 @@
     <t xml:space="preserve">SOD-128</t>
   </si>
   <si>
-    <t xml:space="preserve">D3</t>
+    <t xml:space="preserve">D2, D3</t>
   </si>
   <si>
     <t xml:space="preserve">PMEG2005AEA,115</t>
   </si>
   <si>
-    <t xml:space="preserve">USB diode</t>
+    <t xml:space="preserve">USB diode, BMS bootstrap polarity protection diode</t>
   </si>
   <si>
     <t xml:space="preserve">SOD-323</t>
@@ -665,10 +665,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.79"/>
@@ -1175,7 +1175,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>65</v>

--- a/electronics/rev2/BOM.xlsx
+++ b/electronics/rev2/BOM.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">WURTH ELEKTRONIK</t>
   </si>
   <si>
-    <t xml:space="preserve">3300uF (Kicker)</t>
+    <t xml:space="preserve">2200uF 25V capacitors (Kicker)</t>
   </si>
   <si>
     <t xml:space="preserve">Thru-holes</t>
@@ -587,12 +587,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -658,17 +658,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.79"/>
@@ -679,6 +679,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="68.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,8 +1652,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>